--- a/examples/extract/extract_startandend.xlsx
+++ b/examples/extract/extract_startandend.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>start year</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>folder name</t>
-  </si>
-  <si>
-    <t>mfc_c300</t>
-  </si>
-  <si>
-    <t>c300</t>
   </si>
 </sst>
 </file>
@@ -418,7 +412,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,382 +474,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2020</v>
-      </c>
-      <c r="K2" s="1">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2020</v>
-      </c>
-      <c r="K3" s="1">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1">
-        <v>19</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E4" s="1">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1">
-        <v>30</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2020</v>
-      </c>
-      <c r="K4" s="1">
-        <v>9</v>
-      </c>
-      <c r="L4" s="1">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1">
-        <v>19</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E5" s="1">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2020</v>
-      </c>
-      <c r="K5" s="1">
-        <v>9</v>
-      </c>
-      <c r="L5" s="1">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1">
-        <v>19</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E6" s="1">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2020</v>
-      </c>
-      <c r="K6" s="1">
-        <v>9</v>
-      </c>
-      <c r="L6" s="1">
-        <v>22</v>
-      </c>
-      <c r="M6" s="1">
-        <v>19</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E7" s="1">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2020</v>
-      </c>
-      <c r="K7" s="1">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1">
-        <v>22</v>
-      </c>
-      <c r="M7" s="1">
-        <v>19</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E8" s="1">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1">
-        <v>30</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2020</v>
-      </c>
-      <c r="K8" s="1">
-        <v>9</v>
-      </c>
-      <c r="L8" s="1">
-        <v>22</v>
-      </c>
-      <c r="M8" s="1">
-        <v>19</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E9" s="1">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1">
-        <v>30</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2020</v>
-      </c>
-      <c r="K9" s="1">
-        <v>9</v>
-      </c>
-      <c r="L9" s="1">
-        <v>22</v>
-      </c>
-      <c r="M9" s="1">
-        <v>19</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-    </row>
     <row r="25" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
